--- a/homework_3/HW3_data_4_48.xlsx
+++ b/homework_3/HW3_data_4_48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gage/Documents/homework/2022 Fall/EIND 558/code/homework_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3191AE-97DE-364F-9D00-D79BB2E409E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028FA61-9C64-4247-9643-23D982AF3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{2B0EC918-A7BE-A84D-ABA3-8CC480725F95}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690170D7-0DD0-704F-AF4A-B15D27978737}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/homework_3/HW3_data_4_48.xlsx
+++ b/homework_3/HW3_data_4_48.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gage/Documents/homework/2022 Fall/EIND 558/code/homework_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028FA61-9C64-4247-9643-23D982AF3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA239D9-4B9E-AC4E-9974-2F816863D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{2B0EC918-A7BE-A84D-ABA3-8CC480725F95}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{2B0EC918-A7BE-A84D-ABA3-8CC480725F95}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4_48" sheetId="1" r:id="rId1"/>
+    <sheet name="4_52" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4_48'!$A$1:$B$601</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -39,19 +41,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Positive_Tests</t>
   </si>
+  <si>
+    <t>Additive</t>
+  </si>
+  <si>
+    <t>Multiplicative</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>Multiplica</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Fatalities</t>
+  </si>
+  <si>
+    <t>Resident Population (Thousands)</t>
+  </si>
+  <si>
+    <t>Licensed Drivers (Thousands)</t>
+  </si>
+  <si>
+    <t>Registered Motor Vehicles (Thousands)</t>
+  </si>
+  <si>
+    <t>Vehicle Miles Traveled (Billions)</t>
+  </si>
+  <si>
+    <t>Annual Unemployment Rate (%)</t>
+  </si>
+  <si>
+    <t>First-Order</t>
+  </si>
+  <si>
+    <t>Second-Order</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +140,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -119,6 +183,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690170D7-0DD0-704F-AF4A-B15D27978737}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView topLeftCell="A352" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5257,4 +5338,1252 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1A3F6-A7F5-6E49-B5D9-46331037A7CB}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1966</v>
+      </c>
+      <c r="B2" s="9">
+        <v>50894</v>
+      </c>
+      <c r="C2" s="9">
+        <v>196560</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100998</v>
+      </c>
+      <c r="E2" s="9">
+        <v>95703</v>
+      </c>
+      <c r="F2" s="10">
+        <v>926</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1967</v>
+      </c>
+      <c r="B3" s="9">
+        <v>50724</v>
+      </c>
+      <c r="C3" s="9">
+        <v>198712</v>
+      </c>
+      <c r="D3" s="9">
+        <v>103172</v>
+      </c>
+      <c r="E3" s="9">
+        <v>98859</v>
+      </c>
+      <c r="F3" s="10">
+        <v>964</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>1968</v>
+      </c>
+      <c r="B4" s="9">
+        <v>52725</v>
+      </c>
+      <c r="C4" s="9">
+        <v>200706</v>
+      </c>
+      <c r="D4" s="9">
+        <v>105410</v>
+      </c>
+      <c r="E4" s="9">
+        <v>102987</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1016</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>1969</v>
+      </c>
+      <c r="B5" s="9">
+        <v>53543</v>
+      </c>
+      <c r="C5" s="9">
+        <v>202677</v>
+      </c>
+      <c r="D5" s="9">
+        <v>108306</v>
+      </c>
+      <c r="E5" s="9">
+        <v>107412</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1062</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>1970</v>
+      </c>
+      <c r="B6" s="9">
+        <v>52627</v>
+      </c>
+      <c r="C6" s="9">
+        <v>205052</v>
+      </c>
+      <c r="D6" s="9">
+        <v>111543</v>
+      </c>
+      <c r="E6" s="9">
+        <v>111242</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1110</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>1971</v>
+      </c>
+      <c r="B7" s="9">
+        <v>52542</v>
+      </c>
+      <c r="C7" s="9">
+        <v>207661</v>
+      </c>
+      <c r="D7" s="9">
+        <v>114426</v>
+      </c>
+      <c r="E7" s="9">
+        <v>116330</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1179</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1972</v>
+      </c>
+      <c r="B8" s="9">
+        <v>54589</v>
+      </c>
+      <c r="C8" s="9">
+        <v>209896</v>
+      </c>
+      <c r="D8" s="9">
+        <v>118414</v>
+      </c>
+      <c r="E8" s="9">
+        <v>122557</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1260</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>1973</v>
+      </c>
+      <c r="B9" s="9">
+        <v>54052</v>
+      </c>
+      <c r="C9" s="9">
+        <v>211909</v>
+      </c>
+      <c r="D9" s="9">
+        <v>121546</v>
+      </c>
+      <c r="E9" s="9">
+        <v>130025</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1313</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>1974</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45196</v>
+      </c>
+      <c r="C10" s="9">
+        <v>213854</v>
+      </c>
+      <c r="D10" s="9">
+        <v>125427</v>
+      </c>
+      <c r="E10" s="9">
+        <v>134900</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1281</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1975</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44525</v>
+      </c>
+      <c r="C11" s="9">
+        <v>215973</v>
+      </c>
+      <c r="D11" s="9">
+        <v>129791</v>
+      </c>
+      <c r="E11" s="9">
+        <v>126153</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1328</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>1976</v>
+      </c>
+      <c r="B12" s="9">
+        <v>45523</v>
+      </c>
+      <c r="C12" s="9">
+        <v>218035</v>
+      </c>
+      <c r="D12" s="9">
+        <v>134036</v>
+      </c>
+      <c r="E12" s="9">
+        <v>130793</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1402</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>1977</v>
+      </c>
+      <c r="B13" s="9">
+        <v>47878</v>
+      </c>
+      <c r="C13" s="9">
+        <v>220239</v>
+      </c>
+      <c r="D13" s="9">
+        <v>138121</v>
+      </c>
+      <c r="E13" s="9">
+        <v>134514</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1467</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>1978</v>
+      </c>
+      <c r="B14" s="9">
+        <v>50331</v>
+      </c>
+      <c r="C14" s="9">
+        <v>222585</v>
+      </c>
+      <c r="D14" s="9">
+        <v>140844</v>
+      </c>
+      <c r="E14" s="9">
+        <v>140374</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1545</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>1979</v>
+      </c>
+      <c r="B15" s="9">
+        <v>51093</v>
+      </c>
+      <c r="C15" s="9">
+        <v>225055</v>
+      </c>
+      <c r="D15" s="9">
+        <v>143284</v>
+      </c>
+      <c r="E15" s="9">
+        <v>144317</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1529</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>1980</v>
+      </c>
+      <c r="B16" s="9">
+        <v>51091</v>
+      </c>
+      <c r="C16" s="9">
+        <v>227225</v>
+      </c>
+      <c r="D16" s="9">
+        <v>145295</v>
+      </c>
+      <c r="E16" s="9">
+        <v>146845</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1527</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>1981</v>
+      </c>
+      <c r="B17" s="9">
+        <v>49301</v>
+      </c>
+      <c r="C17" s="9">
+        <v>229466</v>
+      </c>
+      <c r="D17" s="9">
+        <v>147075</v>
+      </c>
+      <c r="E17" s="9">
+        <v>149330</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1555</v>
+      </c>
+      <c r="G17" s="11">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43945</v>
+      </c>
+      <c r="C18" s="9">
+        <v>231664</v>
+      </c>
+      <c r="D18" s="9">
+        <v>150234</v>
+      </c>
+      <c r="E18" s="9">
+        <v>151148</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1595</v>
+      </c>
+      <c r="G18" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>1983</v>
+      </c>
+      <c r="B19" s="9">
+        <v>42589</v>
+      </c>
+      <c r="C19" s="9">
+        <v>233792</v>
+      </c>
+      <c r="D19" s="9">
+        <v>154389</v>
+      </c>
+      <c r="E19" s="9">
+        <v>153830</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1653</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>1984</v>
+      </c>
+      <c r="B20" s="9">
+        <v>44257</v>
+      </c>
+      <c r="C20" s="9">
+        <v>235825</v>
+      </c>
+      <c r="D20" s="9">
+        <v>155424</v>
+      </c>
+      <c r="E20" s="9">
+        <v>158900</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1720</v>
+      </c>
+      <c r="G20" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>1985</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43825</v>
+      </c>
+      <c r="C21" s="9">
+        <v>237924</v>
+      </c>
+      <c r="D21" s="9">
+        <v>156868</v>
+      </c>
+      <c r="E21" s="9">
+        <v>166047</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1775</v>
+      </c>
+      <c r="G21" s="11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>1986</v>
+      </c>
+      <c r="B22" s="9">
+        <v>46087</v>
+      </c>
+      <c r="C22" s="9">
+        <v>240133</v>
+      </c>
+      <c r="D22" s="9">
+        <v>159486</v>
+      </c>
+      <c r="E22" s="9">
+        <v>168545</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1835</v>
+      </c>
+      <c r="G22" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>1987</v>
+      </c>
+      <c r="B23" s="9">
+        <v>46390</v>
+      </c>
+      <c r="C23" s="9">
+        <v>242289</v>
+      </c>
+      <c r="D23" s="9">
+        <v>161816</v>
+      </c>
+      <c r="E23" s="9">
+        <v>172750</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1921</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>1988</v>
+      </c>
+      <c r="B24" s="9">
+        <v>47087</v>
+      </c>
+      <c r="C24" s="9">
+        <v>244499</v>
+      </c>
+      <c r="D24" s="9">
+        <v>162854</v>
+      </c>
+      <c r="E24" s="9">
+        <v>177455</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2026</v>
+      </c>
+      <c r="G24" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>1989</v>
+      </c>
+      <c r="B25" s="9">
+        <v>45582</v>
+      </c>
+      <c r="C25" s="9">
+        <v>246819</v>
+      </c>
+      <c r="D25" s="9">
+        <v>165554</v>
+      </c>
+      <c r="E25" s="9">
+        <v>181165</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2096</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>1990</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44599</v>
+      </c>
+      <c r="C26" s="9">
+        <v>249464</v>
+      </c>
+      <c r="D26" s="9">
+        <v>167015</v>
+      </c>
+      <c r="E26" s="9">
+        <v>184275</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2144</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>1991</v>
+      </c>
+      <c r="B27" s="9">
+        <v>41508</v>
+      </c>
+      <c r="C27" s="9">
+        <v>252153</v>
+      </c>
+      <c r="D27" s="9">
+        <v>168995</v>
+      </c>
+      <c r="E27" s="9">
+        <v>186370</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2172</v>
+      </c>
+      <c r="G27" s="11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>1992</v>
+      </c>
+      <c r="B28" s="9">
+        <v>39250</v>
+      </c>
+      <c r="C28" s="9">
+        <v>255030</v>
+      </c>
+      <c r="D28" s="9">
+        <v>173125</v>
+      </c>
+      <c r="E28" s="9">
+        <v>184938</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2247</v>
+      </c>
+      <c r="G28" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>1993</v>
+      </c>
+      <c r="B29" s="9">
+        <v>40150</v>
+      </c>
+      <c r="C29" s="9">
+        <v>257783</v>
+      </c>
+      <c r="D29" s="9">
+        <v>173149</v>
+      </c>
+      <c r="E29" s="9">
+        <v>188350</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2296</v>
+      </c>
+      <c r="G29" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>1994</v>
+      </c>
+      <c r="B30" s="9">
+        <v>40716</v>
+      </c>
+      <c r="C30" s="9">
+        <v>260327</v>
+      </c>
+      <c r="D30" s="9">
+        <v>175403</v>
+      </c>
+      <c r="E30" s="9">
+        <v>192497</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2358</v>
+      </c>
+      <c r="G30" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>1995</v>
+      </c>
+      <c r="B31" s="9">
+        <v>41817</v>
+      </c>
+      <c r="C31" s="9">
+        <v>262803</v>
+      </c>
+      <c r="D31" s="9">
+        <v>176628</v>
+      </c>
+      <c r="E31" s="9">
+        <v>197065</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2423</v>
+      </c>
+      <c r="G31" s="11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>1996</v>
+      </c>
+      <c r="B32" s="9">
+        <v>42065</v>
+      </c>
+      <c r="C32" s="9">
+        <v>265229</v>
+      </c>
+      <c r="D32" s="9">
+        <v>179539</v>
+      </c>
+      <c r="E32" s="9">
+        <v>201631</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2484</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>1997</v>
+      </c>
+      <c r="B33" s="9">
+        <v>42013</v>
+      </c>
+      <c r="C33" s="9">
+        <v>267784</v>
+      </c>
+      <c r="D33" s="9">
+        <v>182709</v>
+      </c>
+      <c r="E33" s="9">
+        <v>203568</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2552</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>1998</v>
+      </c>
+      <c r="B34" s="9">
+        <v>41501</v>
+      </c>
+      <c r="C34" s="9">
+        <v>270248</v>
+      </c>
+      <c r="D34" s="9">
+        <v>184861</v>
+      </c>
+      <c r="E34" s="9">
+        <v>208076</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2628</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>1999</v>
+      </c>
+      <c r="B35" s="9">
+        <v>41717</v>
+      </c>
+      <c r="C35" s="9">
+        <v>272691</v>
+      </c>
+      <c r="D35" s="9">
+        <v>187170</v>
+      </c>
+      <c r="E35" s="9">
+        <v>212685</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2690</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="9">
+        <v>41945</v>
+      </c>
+      <c r="C36" s="9">
+        <v>282162</v>
+      </c>
+      <c r="D36" s="9">
+        <v>190625</v>
+      </c>
+      <c r="E36" s="9">
+        <v>217028</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2747</v>
+      </c>
+      <c r="G36" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B37" s="9">
+        <v>42196</v>
+      </c>
+      <c r="C37" s="9">
+        <v>284969</v>
+      </c>
+      <c r="D37" s="9">
+        <v>191276</v>
+      </c>
+      <c r="E37" s="9">
+        <v>221230</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2796</v>
+      </c>
+      <c r="G37" s="11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43005</v>
+      </c>
+      <c r="C38" s="9">
+        <v>287625</v>
+      </c>
+      <c r="D38" s="9">
+        <v>194602</v>
+      </c>
+      <c r="E38" s="9">
+        <v>225685</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2856</v>
+      </c>
+      <c r="G38" s="11">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B39" s="9">
+        <v>42884</v>
+      </c>
+      <c r="C39" s="9">
+        <v>290108</v>
+      </c>
+      <c r="D39" s="9">
+        <v>196166</v>
+      </c>
+      <c r="E39" s="9">
+        <v>230633</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2890</v>
+      </c>
+      <c r="G39" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B40" s="9">
+        <v>42836</v>
+      </c>
+      <c r="C40" s="9">
+        <v>292805</v>
+      </c>
+      <c r="D40" s="9">
+        <v>198889</v>
+      </c>
+      <c r="E40" s="9">
+        <v>237949</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2965</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B41" s="9">
+        <v>43510</v>
+      </c>
+      <c r="C41" s="9">
+        <v>295517</v>
+      </c>
+      <c r="D41" s="9">
+        <v>200549</v>
+      </c>
+      <c r="E41" s="9">
+        <v>245628</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2989</v>
+      </c>
+      <c r="G41" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B42" s="9">
+        <v>42708</v>
+      </c>
+      <c r="C42" s="9">
+        <v>298380</v>
+      </c>
+      <c r="D42" s="9">
+        <v>202810</v>
+      </c>
+      <c r="E42" s="9">
+        <v>251415</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3014</v>
+      </c>
+      <c r="G42" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41259</v>
+      </c>
+      <c r="C43" s="9">
+        <v>301231</v>
+      </c>
+      <c r="D43" s="9">
+        <v>205742</v>
+      </c>
+      <c r="E43" s="9">
+        <v>257472</v>
+      </c>
+      <c r="F43" s="9">
+        <v>3031</v>
+      </c>
+      <c r="G43" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B44" s="9">
+        <v>37423</v>
+      </c>
+      <c r="C44" s="9">
+        <v>304094</v>
+      </c>
+      <c r="D44" s="9">
+        <v>208321</v>
+      </c>
+      <c r="E44" s="9">
+        <v>259360</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2977</v>
+      </c>
+      <c r="G44" s="11">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B45" s="9">
+        <v>33883</v>
+      </c>
+      <c r="C45" s="9">
+        <v>306772</v>
+      </c>
+      <c r="D45" s="9">
+        <v>209618</v>
+      </c>
+      <c r="E45" s="9">
+        <v>258958</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2957</v>
+      </c>
+      <c r="G45" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B46" s="9">
+        <v>32999</v>
+      </c>
+      <c r="C46" s="9">
+        <v>309326</v>
+      </c>
+      <c r="D46" s="9">
+        <v>210115</v>
+      </c>
+      <c r="E46" s="9">
+        <v>257312</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2967</v>
+      </c>
+      <c r="G46" s="11">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B47" s="9">
+        <v>32479</v>
+      </c>
+      <c r="C47" s="9">
+        <v>311588</v>
+      </c>
+      <c r="D47" s="9">
+        <v>211875</v>
+      </c>
+      <c r="E47" s="9">
+        <v>265043</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2950</v>
+      </c>
+      <c r="G47" s="11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B48" s="9">
+        <v>33561</v>
+      </c>
+      <c r="C48" s="9">
+        <v>313914</v>
+      </c>
+      <c r="D48" s="9">
+        <v>211815</v>
+      </c>
+      <c r="E48" s="9">
+        <v>265647</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2969</v>
+      </c>
+      <c r="G48" s="11">
+        <v>8.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91644BE8-54E3-784E-8CC5-483F767D177C}">
+  <dimension ref="D29:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.94585059999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.93779500000000005</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.93766850000000002</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.93988760000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3180.884</v>
+      </c>
+      <c r="F31">
+        <v>3054.126264</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3054.596</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3144.7649999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>208926400</v>
+      </c>
+      <c r="F40" s="6">
+        <v>198266300</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>